--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW36.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW36.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5372BAE6-AEFE-42A2-B2E0-6EAC578C51E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBD548D-21B7-4CE3-B3B1-B8D28581BDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="18">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -398,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -636,11 +636,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -988,7 +992,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:O9"/>
+      <selection activeCell="A10" sqref="A10:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2282,7 +2286,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:O10"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2504,7 +2508,9 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
+      <c r="A10" s="24" t="s">
+        <v>14</v>
+      </c>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
@@ -2519,12 +2525,18 @@
       <c r="M10" s="25"/>
       <c r="N10" s="25"/>
       <c r="O10" s="52"/>
-      <c r="P10" s="50"/>
+      <c r="P10" s="50">
+        <v>3.5</v>
+      </c>
       <c r="Q10" s="56"/>
-      <c r="R10" s="7"/>
+      <c r="R10" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+      <c r="A11" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -2539,9 +2551,13 @@
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
       <c r="O11" s="55"/>
-      <c r="P11" s="46"/>
+      <c r="P11" s="46">
+        <v>0.25</v>
+      </c>
       <c r="Q11" s="53"/>
-      <c r="R11" s="8"/>
+      <c r="R11" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
@@ -2646,7 +2662,9 @@
       <c r="R16" s="37"/>
     </row>
     <row r="17" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
+      <c r="A17" s="24" t="s">
+        <v>14</v>
+      </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -2661,12 +2679,18 @@
       <c r="M17" s="25"/>
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
-      <c r="P17" s="50"/>
+      <c r="P17" s="50">
+        <v>6.75</v>
+      </c>
       <c r="Q17" s="51"/>
-      <c r="R17" s="7"/>
+      <c r="R17" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="18" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -2681,9 +2705,13 @@
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
-      <c r="P18" s="72"/>
+      <c r="P18" s="72">
+        <v>0.25</v>
+      </c>
       <c r="Q18" s="73"/>
-      <c r="R18" s="11"/>
+      <c r="R18" s="74" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
@@ -3271,7 +3299,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="22">
         <f>SUM(P7:R46)</f>
-        <v>3.25</v>
+        <v>14</v>
       </c>
       <c r="Q47" s="22"/>
       <c r="R47" s="23"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW36.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW36.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DE4770-AD13-40B0-AD8B-8DAAF8202207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E2C82E-5B25-4960-A634-1F10FEC0C463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="20">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>ü</t>
+  </si>
+  <si>
+    <t>Unterricht</t>
+  </si>
+  <si>
+    <t>Projektabgabe</t>
   </si>
 </sst>
 </file>
@@ -398,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -637,14 +643,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2286,7 +2284,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26:Q26"/>
+      <selection activeCell="P36" sqref="P36:Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2405,7 +2403,9 @@
         <v>3</v>
       </c>
       <c r="M5" s="24"/>
-      <c r="N5" s="26"/>
+      <c r="N5" s="26">
+        <v>44449</v>
+      </c>
       <c r="O5" s="25"/>
       <c r="P5" s="25"/>
       <c r="Q5" s="25"/>
@@ -2857,7 +2857,7 @@
     </row>
     <row r="26" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="34" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -2873,13 +2873,17 @@
       <c r="M26" s="35"/>
       <c r="N26" s="35"/>
       <c r="O26" s="35"/>
-      <c r="P26" s="44"/>
+      <c r="P26" s="44">
+        <v>1</v>
+      </c>
       <c r="Q26" s="45"/>
-      <c r="R26" s="7"/>
+      <c r="R26" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="27" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" s="40"/>
       <c r="C27" s="40"/>
@@ -2895,12 +2899,18 @@
       <c r="M27" s="40"/>
       <c r="N27" s="40"/>
       <c r="O27" s="40"/>
-      <c r="P27" s="73"/>
-      <c r="Q27" s="74"/>
-      <c r="R27" s="11"/>
+      <c r="P27" s="53">
+        <v>5.75</v>
+      </c>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="14" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="28" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
+      <c r="A28" s="34" t="s">
+        <v>15</v>
+      </c>
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
@@ -2915,9 +2925,13 @@
       <c r="M28" s="35"/>
       <c r="N28" s="35"/>
       <c r="O28" s="35"/>
-      <c r="P28" s="44"/>
+      <c r="P28" s="44">
+        <v>0.25</v>
+      </c>
       <c r="Q28" s="45"/>
-      <c r="R28" s="7"/>
+      <c r="R28" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="29" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39"/>
@@ -3042,7 +3056,9 @@
       <c r="R34" s="33"/>
     </row>
     <row r="35" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
+      <c r="A35" s="34" t="s">
+        <v>18</v>
+      </c>
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -3057,12 +3073,16 @@
       <c r="M35" s="35"/>
       <c r="N35" s="35"/>
       <c r="O35" s="35"/>
-      <c r="P35" s="44"/>
+      <c r="P35" s="44">
+        <v>1.5</v>
+      </c>
       <c r="Q35" s="45"/>
       <c r="R35" s="7"/>
     </row>
     <row r="36" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
+      <c r="A36" s="39" t="s">
+        <v>14</v>
+      </c>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
       <c r="D36" s="40"/>
@@ -3082,7 +3102,9 @@
       <c r="R36" s="8"/>
     </row>
     <row r="37" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
+      <c r="A37" s="34" t="s">
+        <v>15</v>
+      </c>
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -3224,7 +3246,9 @@
       <c r="R43" s="33"/>
     </row>
     <row r="44" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="34"/>
+      <c r="A44" s="34" t="s">
+        <v>14</v>
+      </c>
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
@@ -3244,7 +3268,9 @@
       <c r="R44" s="7"/>
     </row>
     <row r="45" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="39"/>
+      <c r="A45" s="39" t="s">
+        <v>19</v>
+      </c>
       <c r="B45" s="40"/>
       <c r="C45" s="40"/>
       <c r="D45" s="40"/>
@@ -3264,7 +3290,9 @@
       <c r="R45" s="8"/>
     </row>
     <row r="46" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="65"/>
+      <c r="A46" s="65" t="s">
+        <v>15</v>
+      </c>
       <c r="B46" s="66"/>
       <c r="C46" s="66"/>
       <c r="D46" s="66"/>
@@ -3303,7 +3331,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="69">
         <f>SUM(P7:R46)</f>
-        <v>14</v>
+        <v>22.5</v>
       </c>
       <c r="Q47" s="69"/>
       <c r="R47" s="70"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW36.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW36.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E2C82E-5B25-4960-A634-1F10FEC0C463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CE44EE-5482-40CD-BFFE-F3592620A833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="0" windowWidth="14400" windowHeight="16200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wochenplan" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="20">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -2283,7 +2283,7 @@
   </sheetPr>
   <dimension ref="A1:R195"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="P36" sqref="P36:Q36"/>
     </sheetView>
   </sheetViews>
@@ -3077,7 +3077,9 @@
         <v>1.5</v>
       </c>
       <c r="Q35" s="45"/>
-      <c r="R35" s="7"/>
+      <c r="R35" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="36" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="39" t="s">
@@ -3097,9 +3099,13 @@
       <c r="M36" s="40"/>
       <c r="N36" s="40"/>
       <c r="O36" s="40"/>
-      <c r="P36" s="57"/>
+      <c r="P36" s="57">
+        <v>1.5</v>
+      </c>
       <c r="Q36" s="58"/>
-      <c r="R36" s="8"/>
+      <c r="R36" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="34" t="s">
@@ -3119,9 +3125,13 @@
       <c r="M37" s="35"/>
       <c r="N37" s="35"/>
       <c r="O37" s="35"/>
-      <c r="P37" s="44"/>
+      <c r="P37" s="44">
+        <v>0.5</v>
+      </c>
       <c r="Q37" s="45"/>
-      <c r="R37" s="7"/>
+      <c r="R37" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="38" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="39"/>
@@ -3263,9 +3273,13 @@
       <c r="M44" s="35"/>
       <c r="N44" s="35"/>
       <c r="O44" s="35"/>
-      <c r="P44" s="44"/>
+      <c r="P44" s="44">
+        <v>7</v>
+      </c>
       <c r="Q44" s="45"/>
-      <c r="R44" s="7"/>
+      <c r="R44" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="45" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="39" t="s">
@@ -3285,9 +3299,13 @@
       <c r="M45" s="40"/>
       <c r="N45" s="40"/>
       <c r="O45" s="40"/>
-      <c r="P45" s="57"/>
+      <c r="P45" s="57">
+        <v>0.5</v>
+      </c>
       <c r="Q45" s="58"/>
-      <c r="R45" s="8"/>
+      <c r="R45" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="46" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="65" t="s">
@@ -3307,9 +3325,13 @@
       <c r="M46" s="66"/>
       <c r="N46" s="66"/>
       <c r="O46" s="66"/>
-      <c r="P46" s="67"/>
+      <c r="P46" s="67">
+        <v>0.5</v>
+      </c>
       <c r="Q46" s="68"/>
-      <c r="R46" s="12"/>
+      <c r="R46" s="12" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="47" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
@@ -3331,7 +3353,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="69">
         <f>SUM(P7:R46)</f>
-        <v>22.5</v>
+        <v>32.5</v>
       </c>
       <c r="Q47" s="69"/>
       <c r="R47" s="70"/>
